--- a/DATA/production.xlsx
+++ b/DATA/production.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDC72844-C589-43CF-9034-9D4E4AA90E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F7FFF5-7495-4708-BDDA-EB2E0B3B564B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1320" windowWidth="14160" windowHeight="14880" xr2:uid="{339402B9-91E4-4907-A9F4-F92C86560BF8}"/>
+    <workbookView xWindow="12075" yWindow="1065" windowWidth="14160" windowHeight="14880" xr2:uid="{339402B9-91E4-4907-A9F4-F92C86560BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Input Factor</t>
   </si>
@@ -94,13 +94,16 @@
   </si>
   <si>
     <t>P3</t>
+  </si>
+  <si>
+    <t>Egg (grams)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,37 +111,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -146,173 +128,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,30 +451,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBAE184-8C28-49D1-9EAE-EA781339C8A9}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
@@ -660,54 +489,54 @@
       <c r="C2" s="1">
         <v>200</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>300</v>
-      </c>
-      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
@@ -716,149 +545,168 @@
       <c r="C6" s="1">
         <v>25</v>
       </c>
-      <c r="D6" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1">
+        <v>200</v>
+      </c>
+      <c r="C9" s="1">
+        <v>300</v>
+      </c>
+      <c r="D9" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B13" s="1">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
+        <v>90</v>
+      </c>
+      <c r="D13" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1">
-        <v>90</v>
-      </c>
-      <c r="D12" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1">
-        <v>75</v>
-      </c>
-      <c r="D13" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2200</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="1">
+        <v>800</v>
+      </c>
+      <c r="C16" s="1">
+        <v>350</v>
+      </c>
+      <c r="D16" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DATA/production.xlsx
+++ b/DATA/production.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F7FFF5-7495-4708-BDDA-EB2E0B3B564B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69941A27-F4DE-44DD-9BF1-F23A54DD4215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12075" yWindow="1065" windowWidth="14160" windowHeight="14880" xr2:uid="{339402B9-91E4-4907-A9F4-F92C86560BF8}"/>
+    <workbookView xWindow="13665" yWindow="1440" windowWidth="13350" windowHeight="11385" xr2:uid="{339402B9-91E4-4907-A9F4-F92C86560BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1">
         <v>5</v>
